--- a/operation/start/start(HZP).xlsx
+++ b/operation/start/start(HZP).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="8685"/>
+    <workbookView windowWidth="21600" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t xml:space="preserve">start item </t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>xdy101415</t>
+  </si>
+  <si>
+    <t>ct190208</t>
   </si>
 </sst>
 </file>
@@ -124,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -150,6 +153,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -157,144 +296,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,187 +312,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,21 +509,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,26 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -564,6 +538,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,9 +577,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +594,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,143 +629,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -766,10 +778,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1467,16 +1485,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
@@ -1487,7 +1505,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1507,7 +1525,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
@@ -1521,10 +1539,10 @@
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
@@ -1538,10 +1556,10 @@
       </c>
     </row>
     <row r="4" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
@@ -1555,10 +1573,10 @@
       </c>
     </row>
     <row r="5" ht="27.75" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -1575,7 +1593,7 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>191011</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1588,20 +1606,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="42.75" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="1" ht="42.75" customHeight="1" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>272817</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1609,7 +1627,7 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1625,17 +1643,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:6">
-      <c r="A9" t="s">
+    <row r="9" s="2" customFormat="1" ht="20" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1643,7 +1661,7 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
@@ -1660,13 +1678,27 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>21000115</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/operation/start/start(HZP).xlsx
+++ b/operation/start/start(HZP).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t xml:space="preserve">start item </t>
   </si>
@@ -118,7 +118,10 @@
     <t>xdy101415</t>
   </si>
   <si>
-    <t>ct190208</t>
+    <t>21000115(陈婷)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ct190208/222029 </t>
   </si>
 </sst>
 </file>
@@ -127,9 +130,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -160,6 +163,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -168,41 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -211,6 +200,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -220,6 +216,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -234,45 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +292,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -318,31 +321,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,151 +471,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,6 +545,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -556,21 +574,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,7 +623,7 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -901,7 +904,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="171450"/>
+              <a:off x="3724275" y="171450"/>
               <a:ext cx="1085850" cy="361950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -942,7 +945,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="171450"/>
+              <a:off x="3724275" y="171450"/>
               <a:ext cx="1000125" cy="523875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -983,7 +986,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="795655"/>
+              <a:off x="3724275" y="795655"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1024,7 +1027,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="1148080"/>
+              <a:off x="3724275" y="1148080"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1065,7 +1068,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="1500505"/>
+              <a:off x="3724275" y="1500505"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1106,7 +1109,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="1852930"/>
+              <a:off x="3724275" y="1852930"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1147,7 +1150,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3076575" y="2186305"/>
+              <a:off x="3724275" y="2186305"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1488,13 +1491,13 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
@@ -1689,11 +1692,11 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
-        <v>21000115</v>
+      <c r="A12" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>

--- a/operation/start/start(HZP).xlsx
+++ b/operation/start/start(HZP).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t xml:space="preserve">start item </t>
   </si>
@@ -43,6 +43,9 @@
     <t>账户拥有者</t>
   </si>
   <si>
+    <t>列1</t>
+  </si>
+  <si>
     <t>910096(苏艳利)medi</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>dce</t>
+  </si>
+  <si>
+    <t>mwpv</t>
   </si>
   <si>
     <t>910211(周建东)</t>
@@ -129,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -163,6 +169,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -170,17 +230,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,14 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -207,16 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,30 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -261,38 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -321,12 +327,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,169 +417,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,36 +518,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,17 +539,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,16 +596,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,137 +638,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,9 +794,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,7 +907,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3724275" y="171450"/>
+              <a:off x="4219575" y="171450"/>
               <a:ext cx="1085850" cy="361950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -945,7 +948,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3724275" y="171450"/>
+              <a:off x="4219575" y="171450"/>
               <a:ext cx="1000125" cy="523875"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -986,7 +989,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3724275" y="795655"/>
+              <a:off x="4219575" y="795655"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1027,7 +1030,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3724275" y="1148080"/>
+              <a:off x="4219575" y="1148080"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1068,7 +1071,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3724275" y="1500505"/>
+              <a:off x="4219575" y="1500505"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1109,7 +1112,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3724275" y="1852930"/>
+              <a:off x="4219575" y="1852930"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1150,7 +1153,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3724275" y="2186305"/>
+              <a:off x="4219575" y="2186305"/>
               <a:ext cx="1085850" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1187,15 +1190,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F17" totalsRowShown="0">
-  <autoFilter ref="A1:F17"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G17" totalsRowShown="0">
+  <autoFilter ref="A1:G17"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="start item " dataDxfId="0"/>
     <tableColumn id="2" name="password" dataDxfId="1"/>
     <tableColumn id="3" name="group" dataDxfId="2"/>
     <tableColumn id="4" name="shortcut" dataDxfId="3"/>
     <tableColumn id="5" name="exchange" dataDxfId="4"/>
     <tableColumn id="6" name="账户拥有者" dataDxfId="5"/>
+    <tableColumn id="7" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1488,15 +1492,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
@@ -1504,7 +1508,7 @@
     <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1522,187 +1526,199 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="49.15" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="27.75" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" ht="27.75" customHeight="1" spans="1:6">
+    <row r="4" ht="27.75" customHeight="1" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="27.75" customHeight="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5">
         <v>191011</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="42.75" customHeight="1" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7">
         <v>272817</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="17" customHeight="1" spans="1:6">
-      <c r="A8" s="1" t="s">
+    <row r="9" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="22" customHeight="1" spans="1:6">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:6">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/operation/start/start(HZP).xlsx
+++ b/operation/start/start(HZP).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="8760"/>
+    <workbookView windowWidth="17025" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,12 @@
     <t>xcy240697</t>
   </si>
   <si>
-    <t>刘丙元(21000067)</t>
-  </si>
-  <si>
-    <t>042778</t>
+    <t>刘丙元(21000067)
+910019（苏艳秋）</t>
+  </si>
+  <si>
+    <t>042778
+208421</t>
   </si>
   <si>
     <t>肖德勇(21000071)</t>
@@ -135,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,6 +173,113 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,119 +301,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -327,12 +329,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,169 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,26 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +549,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,17 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,7 +631,7 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,137 +640,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +797,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -848,7 +856,10 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="49" formatCode="@"/>
     </dxf>
@@ -1199,7 +1210,7 @@
     <tableColumn id="4" name="shortcut" dataDxfId="3"/>
     <tableColumn id="5" name="exchange" dataDxfId="4"/>
     <tableColumn id="6" name="账户拥有者" dataDxfId="5"/>
-    <tableColumn id="7" name="列1"/>
+    <tableColumn id="7" name="列1" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1495,7 +1506,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1676,11 +1687,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="22" customHeight="1" spans="1:6">
-      <c r="A10" t="s">
+    <row r="10" ht="46" customHeight="1" spans="1:6">
+      <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
@@ -1916,7 +1927,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1933,7 +1944,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/operation/start/start(HZP).xlsx
+++ b/operation/start/start(HZP).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t xml:space="preserve">start item </t>
   </si>
@@ -118,6 +118,11 @@
   <si>
     <t>042778
 208421</t>
+  </si>
+  <si>
+    <t>067已经换成019，
+但是各个文件夹等还沿用
+067的名字。</t>
   </si>
   <si>
     <t>肖德勇(21000071)</t>
@@ -137,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -173,7 +178,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,30 +298,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -329,6 +334,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,169 +478,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,17 +528,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,15 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,17 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,149 +633,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,6 +807,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -900,8 +908,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
@@ -982,8 +990,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
@@ -1023,8 +1031,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
@@ -1064,8 +1072,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
@@ -1105,8 +1113,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
@@ -1146,8 +1154,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
@@ -1506,7 +1514,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1514,7 +1522,7 @@
     <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="7.375" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
@@ -1687,7 +1695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="46" customHeight="1" spans="1:6">
+    <row r="10" ht="111" customHeight="1" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1696,6 +1704,9 @@
       </c>
       <c r="C10" t="s">
         <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1706,10 +1717,10 @@
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:6">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1720,10 +1731,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1751,8 +1762,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>361950</xdr:rowOff>
               </to>
@@ -1801,8 +1812,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
@@ -1826,8 +1837,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
@@ -1851,8 +1862,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
@@ -1876,8 +1887,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
@@ -1901,8 +1912,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>323850</xdr:rowOff>
               </to>
